--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_15_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_15_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.955108836795216</v>
+        <v>0.970958158893357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7096443158398478</v>
+        <v>0.7738847385489549</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9667044909249953</v>
+        <v>0.9244099953288739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.508295209930493</v>
+        <v>0.8361636101003683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9168899030911447</v>
+        <v>0.9252967985110492</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3001874150551909</v>
+        <v>0.1942029252055037</v>
       </c>
       <c r="H2" t="n">
-        <v>1.94160979694393</v>
+        <v>1.512033794488182</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2607521937831604</v>
+        <v>0.7170831301233577</v>
       </c>
       <c r="J2" t="n">
-        <v>1.021169117865772</v>
+        <v>0.02502842586420588</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6409605962531756</v>
+        <v>0.3710557992133211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8870147866346693</v>
+        <v>0.7625502401186579</v>
       </c>
       <c r="M2" t="n">
-        <v>0.547893616549044</v>
+        <v>0.4406846096762442</v>
       </c>
       <c r="N2" t="n">
-        <v>1.021987508508466</v>
+        <v>1.014224575235907</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5712185821016776</v>
+        <v>0.4594454658530638</v>
       </c>
       <c r="P2" t="n">
-        <v>148.4066965650593</v>
+        <v>149.2777033207764</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.3846317804379</v>
+        <v>238.255638536155</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9547918113187545</v>
+        <v>0.9709898888205719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7095676985211586</v>
+        <v>0.7736734128293876</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9670572297417036</v>
+        <v>0.9256343040393555</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5063881435839075</v>
+        <v>0.8315571433994408</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9168122179831</v>
+        <v>0.926395106076264</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3023073658760574</v>
+        <v>0.1939907470361153</v>
       </c>
       <c r="H3" t="n">
-        <v>1.942122137306794</v>
+        <v>1.513446930547994</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2579897365375919</v>
+        <v>0.7054687490134589</v>
       </c>
       <c r="J3" t="n">
-        <v>1.025129700105736</v>
+        <v>0.02573213161840816</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6415597183216637</v>
+        <v>0.3656004320634531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8887812022842873</v>
+        <v>0.7709124900522559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5498248501805438</v>
+        <v>0.4404438068994901</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022142786292855</v>
+        <v>1.014209034047067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.573232032347075</v>
+        <v>0.4591944116035728</v>
       </c>
       <c r="P3" t="n">
-        <v>148.3926220227605</v>
+        <v>149.2798896334928</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.3705572381391</v>
+        <v>238.2578248488715</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9544641845167938</v>
+        <v>0.971014874107791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7094822623850681</v>
+        <v>0.7734532043569187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967404966910512</v>
+        <v>0.9268579143711441</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5044042050855533</v>
+        <v>0.8264291209489645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9167216583016582</v>
+        <v>0.9274847187776024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3044982078093508</v>
+        <v>0.1938236703054347</v>
       </c>
       <c r="H4" t="n">
-        <v>1.942693449142228</v>
+        <v>1.514919465617361</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2552664494593712</v>
+        <v>0.6938609930596432</v>
       </c>
       <c r="J4" t="n">
-        <v>1.029249929900483</v>
+        <v>0.02651551270859427</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6422581315057698</v>
+        <v>0.3601882528841187</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8905618855956213</v>
+        <v>0.7793326976021331</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5518135625456762</v>
+        <v>0.4402540974317385</v>
       </c>
       <c r="N4" t="n">
-        <v>1.022303256563203</v>
+        <v>1.014196796355368</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5753054083147932</v>
+        <v>0.4589966258110263</v>
       </c>
       <c r="P4" t="n">
-        <v>148.3781801550662</v>
+        <v>149.2816128983695</v>
       </c>
       <c r="Q4" t="n">
-        <v>237.3561153704448</v>
+        <v>238.2595481137481</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9541255988924304</v>
+        <v>0.9710330082282863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7093877086226981</v>
+        <v>0.7732238950626685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9677473593538651</v>
+        <v>0.9280808608830813</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5023394827018421</v>
+        <v>0.820765204794569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9166174928116563</v>
+        <v>0.9285654622941293</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3067623314385118</v>
+        <v>0.1937024073581821</v>
       </c>
       <c r="H5" t="n">
-        <v>1.943325730586577</v>
+        <v>1.516452857923884</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2525850193440372</v>
+        <v>0.6822595344201215</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03353793111136</v>
+        <v>0.02738075946884214</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6430614752276985</v>
+        <v>0.3548201275390646</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8923581233809129</v>
+        <v>0.7878067207128155</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5538612925981665</v>
+        <v>0.4401163566128644</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022469094420034</v>
+        <v>1.014187914337166</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5774403144750037</v>
+        <v>0.45885302108033</v>
       </c>
       <c r="P5" t="n">
-        <v>148.3633639918212</v>
+        <v>149.2828645607293</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.3412992071998</v>
+        <v>238.2607997761079</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9537758656713771</v>
+        <v>0.9710440257054239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7092837640578952</v>
+        <v>0.7729852591316588</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9680840505365899</v>
+        <v>0.929302518177739</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5001942814458112</v>
+        <v>0.8145595018128792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.916499600507568</v>
+        <v>0.9296366354051986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3091009990980689</v>
+        <v>0.1936287334378319</v>
       </c>
       <c r="H6" t="n">
-        <v>1.944020808370035</v>
+        <v>1.518048617493363</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2499482383798188</v>
+        <v>0.6706703059156036</v>
       </c>
       <c r="J6" t="n">
-        <v>1.037993070289394</v>
+        <v>0.02832877216069684</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6439706827046789</v>
+        <v>0.3494995390381502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8941696728726899</v>
+        <v>0.7963358837662829</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5559685234777855</v>
+        <v>0.4400326504224793</v>
       </c>
       <c r="N6" t="n">
-        <v>1.022640392324224</v>
+        <v>1.014182518021833</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5796372545357373</v>
+        <v>0.4587657513441244</v>
       </c>
       <c r="P6" t="n">
-        <v>148.3481743951365</v>
+        <v>149.2836253972692</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.3261096105151</v>
+        <v>238.2615606126478</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9534146864908167</v>
+        <v>0.9710476866945819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7091702528772537</v>
+        <v>0.7727370144239556</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9684144682277411</v>
+        <v>0.9305226983902757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4979665854305907</v>
+        <v>0.8077940334673447</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9163674374404939</v>
+        <v>0.9306977961499515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3115162059415534</v>
+        <v>0.1936042523864759</v>
       </c>
       <c r="H7" t="n">
-        <v>1.944779858157655</v>
+        <v>1.519708630996836</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2473605879661135</v>
+        <v>0.6590950897223101</v>
       </c>
       <c r="J7" t="n">
-        <v>1.042619534014537</v>
+        <v>0.02936229727087887</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6449899489722581</v>
+        <v>0.3442286826305252</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8959966000697069</v>
+        <v>0.8049185580424973</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5581363685888543</v>
+        <v>0.4400048322308243</v>
       </c>
       <c r="N7" t="n">
-        <v>1.022817296412661</v>
+        <v>1.014180724884286</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5818973893012422</v>
+        <v>0.4587367488744591</v>
       </c>
       <c r="P7" t="n">
-        <v>148.3326078332267</v>
+        <v>149.2838782791494</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.3105430486054</v>
+        <v>238.261813494528</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9530417931145986</v>
+        <v>0.9710437429296862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7090467599030053</v>
+        <v>0.772478935921929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9687386529477137</v>
+        <v>0.9317406511458095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4956546371479837</v>
+        <v>0.8004575205579905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9162207257701406</v>
+        <v>0.9317480440484293</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3140097456653407</v>
+        <v>0.1936306243604923</v>
       </c>
       <c r="H8" t="n">
-        <v>1.945605656245087</v>
+        <v>1.521434403128231</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2448217507693798</v>
+        <v>0.6475410042571695</v>
       </c>
       <c r="J8" t="n">
-        <v>1.047420972267696</v>
+        <v>0.0304830578636022</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6461214167866931</v>
+        <v>0.3390120310603858</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8978390706082877</v>
+        <v>0.8135567863268716</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5603657249201995</v>
+        <v>0.440034799033545</v>
       </c>
       <c r="N8" t="n">
-        <v>1.022999938066319</v>
+        <v>1.014182656524235</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5842216539470166</v>
+        <v>0.4587679914260114</v>
       </c>
       <c r="P8" t="n">
-        <v>148.3166625128095</v>
+        <v>149.2836058659383</v>
       </c>
       <c r="Q8" t="n">
-        <v>237.2945977281882</v>
+        <v>238.2615410813169</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9526569232996328</v>
+        <v>0.9710319856390455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7089131505960256</v>
+        <v>0.7722106776025868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.969055986809005</v>
+        <v>0.9329564893611392</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4932571824435905</v>
+        <v>0.7925368683207354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9160590410597484</v>
+        <v>0.9327872954943146</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3165833718901787</v>
+        <v>0.1937092454171445</v>
       </c>
       <c r="H9" t="n">
-        <v>1.946499102296075</v>
+        <v>1.523228247744888</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2423365657461689</v>
+        <v>0.636006978337136</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05239998966808</v>
+        <v>0.03169305435728554</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6473683594835795</v>
+        <v>0.3338499996059025</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8996988022621778</v>
+        <v>0.8222515942667689</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5626574196526504</v>
+        <v>0.4401241250115068</v>
       </c>
       <c r="N9" t="n">
-        <v>1.023188445730792</v>
+        <v>1.014188415197202</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5866109108686901</v>
+        <v>0.4588611201957853</v>
       </c>
       <c r="P9" t="n">
-        <v>148.300337307584</v>
+        <v>149.2827939582173</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.2782725229627</v>
+        <v>238.2607291735959</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9522597292263709</v>
+        <v>0.971012107379881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7087690873569336</v>
+        <v>0.7719320391671514</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9693660875272375</v>
+        <v>0.9341692791322044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4907715075993828</v>
+        <v>0.7840181526991459</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9158818014901917</v>
+        <v>0.9338144303112573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3192394104869916</v>
+        <v>0.1938421714277079</v>
       </c>
       <c r="H10" t="n">
-        <v>1.947462453839233</v>
+        <v>1.525091504245656</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2399080267383785</v>
+        <v>0.6245018714251743</v>
       </c>
       <c r="J10" t="n">
-        <v>1.057562222046581</v>
+        <v>0.03299441385699023</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6487352641607246</v>
+        <v>0.3287481522579428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9015724668386116</v>
+        <v>0.8309983567427206</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5650127524994384</v>
+        <v>0.4402751087987009</v>
       </c>
       <c r="N10" t="n">
-        <v>1.023382989766676</v>
+        <v>1.014198151487405</v>
       </c>
       <c r="O10" t="n">
-        <v>0.589066515110977</v>
+        <v>0.4590185316753797</v>
       </c>
       <c r="P10" t="n">
-        <v>148.2836279091798</v>
+        <v>149.2814220007428</v>
       </c>
       <c r="Q10" t="n">
-        <v>237.2615631245584</v>
+        <v>238.2593572161214</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9518499950968966</v>
+        <v>0.970983905743258</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7086142886364816</v>
+        <v>0.7716427225827085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9696685354093323</v>
+        <v>0.9353788632621934</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4881971260576738</v>
+        <v>0.7748922838409306</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9156887719236877</v>
+        <v>0.9348291763717904</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3219793044974388</v>
+        <v>0.1940307559016631</v>
       </c>
       <c r="H11" t="n">
-        <v>1.948497593595678</v>
+        <v>1.527026165578007</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2375394205523723</v>
+        <v>0.6130271747658229</v>
       </c>
       <c r="J11" t="n">
-        <v>1.062908679882847</v>
+        <v>0.03438852497176902</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6502239442446448</v>
+        <v>0.3237078406918395</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9034632362885624</v>
+        <v>0.8409000538853572</v>
       </c>
       <c r="M11" t="n">
-        <v>0.567432202555899</v>
+        <v>0.4404892233660922</v>
       </c>
       <c r="N11" t="n">
-        <v>1.023583675870908</v>
+        <v>1.014211964533914</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5915889661652932</v>
+        <v>0.4592417615431832</v>
       </c>
       <c r="P11" t="n">
-        <v>148.2665360145007</v>
+        <v>149.2794771938173</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.2444712298793</v>
+        <v>238.257412409196</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9514273547757455</v>
+        <v>0.9709470300824734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7084485273832208</v>
+        <v>0.7713423992538593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9699629640889507</v>
+        <v>0.9365846721022398</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4855313889766277</v>
+        <v>0.7651373677150772</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9154793389215112</v>
+        <v>0.9358306382938882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.324805502271056</v>
+        <v>0.1942773436151261</v>
       </c>
       <c r="H12" t="n">
-        <v>1.949606039859493</v>
+        <v>1.529034429060883</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2352336163686847</v>
+        <v>0.6015882923221344</v>
       </c>
       <c r="J12" t="n">
-        <v>1.068444864273341</v>
+        <v>0.03587873233789224</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6518391306894081</v>
+        <v>0.3187335123300133</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9053679044551722</v>
+        <v>0.8518783977352478</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5699171012270609</v>
+        <v>0.4407690365884678</v>
       </c>
       <c r="N12" t="n">
-        <v>1.023790683375145</v>
+        <v>1.014230026082054</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5941796521173358</v>
+        <v>0.4595334869937285</v>
       </c>
       <c r="P12" t="n">
-        <v>148.2490574606968</v>
+        <v>149.2769370691388</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.2269926760754</v>
+        <v>238.2548722845175</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9509915643598562</v>
+        <v>0.970901298334742</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7082714913976951</v>
+        <v>0.7710308251174551</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9702489477722547</v>
+        <v>0.9377860624789475</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4827737639982939</v>
+        <v>0.7547470234177257</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9152532313156447</v>
+        <v>0.93681811124168</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3277196347887379</v>
+        <v>0.1945831520227814</v>
       </c>
       <c r="H13" t="n">
-        <v>1.95078988030988</v>
+        <v>1.531117926745684</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2329939487714801</v>
+        <v>0.5901913255461996</v>
       </c>
       <c r="J13" t="n">
-        <v>1.074171880815384</v>
+        <v>0.03746601073257092</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6535829147934321</v>
+        <v>0.3138286681393852</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9072906477225784</v>
+        <v>0.862926381957613</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5724680207563894</v>
+        <v>0.4411158034153632</v>
       </c>
       <c r="N13" t="n">
-        <v>1.024004131742111</v>
+        <v>1.014252425305433</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5968391695721592</v>
+        <v>0.4598950164023512</v>
       </c>
       <c r="P13" t="n">
-        <v>148.2311936162189</v>
+        <v>149.2737913809125</v>
       </c>
       <c r="Q13" t="n">
-        <v>237.2091288315975</v>
+        <v>238.2517265962912</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9505422695721345</v>
+        <v>0.9708463696477823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7080829853491573</v>
+        <v>0.7707076720959427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.970526006686047</v>
+        <v>0.9389827566272249</v>
       </c>
       <c r="E14" t="n">
-        <v>0.479921239607236</v>
+        <v>0.7437066889668624</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9150098289336305</v>
+        <v>0.9377911052330101</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3307240711030454</v>
+        <v>0.1949504604054047</v>
       </c>
       <c r="H14" t="n">
-        <v>1.952050421124443</v>
+        <v>1.533278852488521</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2308241750817069</v>
+        <v>0.5788389094512338</v>
       </c>
       <c r="J14" t="n">
-        <v>1.080095983803471</v>
+        <v>0.03915258471341089</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6554600794425889</v>
+        <v>0.3089957418941001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.911485876734896</v>
+        <v>0.8740502450488253</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5750861423326469</v>
+        <v>0.441531947208132</v>
       </c>
       <c r="N14" t="n">
-        <v>1.024224194495281</v>
+        <v>1.014279329152107</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5995687500041769</v>
+        <v>0.4603288762979146</v>
       </c>
       <c r="P14" t="n">
-        <v>148.2129417466127</v>
+        <v>149.2700196037948</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.1908769619913</v>
+        <v>238.2479548191735</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9500791781114143</v>
+        <v>0.9707820208836733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7078826320652429</v>
+        <v>0.7703726356793894</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9707936919206231</v>
+        <v>0.94017420978096</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4769726514677248</v>
+        <v>0.7319963083813065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9147487296351428</v>
+        <v>0.9387487885003769</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3338207658332215</v>
+        <v>0.1953807608872998</v>
       </c>
       <c r="H15" t="n">
-        <v>1.95339018445652</v>
+        <v>1.535519242548713</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2287278109143399</v>
+        <v>0.5675362119505136</v>
       </c>
       <c r="J15" t="n">
-        <v>1.086219591322015</v>
+        <v>0.04094151812745141</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6574737260182095</v>
+        <v>0.3042388650389825</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9209318648037607</v>
+        <v>0.8852445159471444</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5777722439103677</v>
+        <v>0.442018959873103</v>
       </c>
       <c r="N15" t="n">
-        <v>1.024451014802573</v>
+        <v>1.014310846914119</v>
       </c>
       <c r="O15" t="n">
-        <v>0.602369204487058</v>
+        <v>0.4608366221002886</v>
       </c>
       <c r="P15" t="n">
-        <v>148.1943021185686</v>
+        <v>149.2656100087357</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.1722373339472</v>
+        <v>238.2435452241143</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9496019764550472</v>
+        <v>0.970707863599918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7076702245091135</v>
+        <v>0.7700253712995567</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9710516275789175</v>
+        <v>0.9413596373020324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4739263893542006</v>
+        <v>0.7196058503209579</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9144695252836579</v>
+        <v>0.9396902638253266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3370118155066597</v>
+        <v>0.1958766509852344</v>
       </c>
       <c r="H16" t="n">
-        <v>1.954810554762404</v>
+        <v>1.53784140105566</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2267078000893479</v>
+        <v>0.556290676498527</v>
       </c>
       <c r="J16" t="n">
-        <v>1.092546047476359</v>
+        <v>0.04283434340989912</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6596270021454226</v>
+        <v>0.2995624941181124</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9306722516142747</v>
+        <v>0.8965076927541706</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5805271875689024</v>
+        <v>0.4425795419867872</v>
       </c>
       <c r="N16" t="n">
-        <v>1.024684746226099</v>
+        <v>1.01434716884902</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6052414318006561</v>
+        <v>0.4614210693551173</v>
       </c>
       <c r="P16" t="n">
-        <v>148.1752745767875</v>
+        <v>149.2605402991439</v>
       </c>
       <c r="Q16" t="n">
-        <v>237.1532097921662</v>
+        <v>238.2384755145225</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9491102217046521</v>
+        <v>0.9706236333311706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7074454184675928</v>
+        <v>0.7696655659270921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9712991661477208</v>
+        <v>0.9425386635283477</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4707794259413741</v>
+        <v>0.7065177693074169</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9141715003025085</v>
+        <v>0.9406148933165233</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3403001817868745</v>
+        <v>0.1964398991801928</v>
       </c>
       <c r="H17" t="n">
-        <v>1.95631383379719</v>
+        <v>1.540247421238083</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2247692135755926</v>
+        <v>0.5451058668065307</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09908163939479</v>
+        <v>0.04483374089145258</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6619254264851911</v>
+        <v>0.2949697975804287</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9404874749852639</v>
+        <v>0.9078518235504788</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5833525364536222</v>
+        <v>0.4432154094570639</v>
       </c>
       <c r="N17" t="n">
-        <v>1.024925605695681</v>
+        <v>1.014388424490855</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6081870616366768</v>
+        <v>0.4620840070200308</v>
       </c>
       <c r="P17" t="n">
-        <v>148.155854326559</v>
+        <v>149.2547975020917</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.1337895419376</v>
+        <v>238.2327327174703</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9486036474306707</v>
+        <v>0.9705290565796506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7072080003528052</v>
+        <v>0.7692928854086164</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9715358404005761</v>
+        <v>0.9437107429161502</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4675303527297787</v>
+        <v>0.6927196522995509</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9138542134449978</v>
+        <v>0.9415219678280049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3436876462895475</v>
+        <v>0.1970723343530934</v>
       </c>
       <c r="H18" t="n">
-        <v>1.957901449823984</v>
+        <v>1.542739537581165</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2229157104348247</v>
+        <v>0.5339869581649026</v>
       </c>
       <c r="J18" t="n">
-        <v>1.105829292239288</v>
+        <v>0.04694160684729166</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6643724020144867</v>
+        <v>0.2904642978013642</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9503862585965934</v>
+        <v>0.9192608771703408</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5862487921433591</v>
+        <v>0.4439282986621751</v>
       </c>
       <c r="N18" t="n">
-        <v>1.025173723707427</v>
+        <v>1.014434747797722</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6112066169272017</v>
+        <v>0.4628272453944877</v>
       </c>
       <c r="P18" t="n">
-        <v>148.1360440781344</v>
+        <v>149.2483688763614</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.1139792935131</v>
+        <v>238.22630409174</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9480819085194849</v>
+        <v>0.9704237269612378</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7069576257981545</v>
+        <v>0.7689070062911096</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9717612799110623</v>
+        <v>0.9448750013925449</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4641770513572155</v>
+        <v>0.6781920945299627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.913517162934696</v>
+        <v>0.9424103641083902</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3471765167910341</v>
+        <v>0.1977766739964177</v>
       </c>
       <c r="H19" t="n">
-        <v>1.959575705623803</v>
+        <v>1.545319913016743</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2211501916439188</v>
+        <v>0.5229422424494043</v>
       </c>
       <c r="J19" t="n">
-        <v>1.112793405409864</v>
+        <v>0.04916090564194195</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6669717985268917</v>
+        <v>0.2860515740456732</v>
       </c>
       <c r="L19" t="n">
-        <v>0.960366447018467</v>
+        <v>0.9307432561129246</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5892168673680634</v>
+        <v>0.4447208944904857</v>
       </c>
       <c r="N19" t="n">
-        <v>1.025429269296579</v>
+        <v>1.014486337814904</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6143010492589844</v>
+        <v>0.4636535836681089</v>
       </c>
       <c r="P19" t="n">
-        <v>148.1158438689078</v>
+        <v>149.2412335879296</v>
       </c>
       <c r="Q19" t="n">
-        <v>237.0937790842864</v>
+        <v>238.2191688033082</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9475446252028943</v>
+        <v>0.970307381235034</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7066941084589253</v>
+        <v>0.7685075283474826</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9719749567577902</v>
+        <v>0.9460309600148711</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4607170665393678</v>
+        <v>0.6629205432599922</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9131597887765255</v>
+        <v>0.9432793905085841</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3507693328030374</v>
+        <v>0.1985546784032657</v>
       </c>
       <c r="H20" t="n">
-        <v>1.961337847284614</v>
+        <v>1.547991223865204</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2194767915940963</v>
+        <v>0.5119762631404052</v>
       </c>
       <c r="J20" t="n">
-        <v>1.119979078024059</v>
+        <v>0.05149386042095064</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6697279348090774</v>
+        <v>0.281735061780678</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9704263541830798</v>
+        <v>0.942297879778864</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5922578262910819</v>
+        <v>0.4455947468308684</v>
       </c>
       <c r="N20" t="n">
-        <v>1.025692428472052</v>
+        <v>1.014543323476718</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6174714680990085</v>
+        <v>0.4645646377117454</v>
       </c>
       <c r="P20" t="n">
-        <v>148.0952528860989</v>
+        <v>149.233381517671</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.0731881014775</v>
+        <v>238.2113167330496</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9469914065165577</v>
+        <v>0.9701796049089966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7064171333881333</v>
+        <v>0.768094125207829</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9721761214308242</v>
+        <v>0.9471780521548341</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4571486956020722</v>
+        <v>0.6468879831568767</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9127814653899199</v>
+        <v>0.9441282487138583</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3544687087059085</v>
+        <v>0.1994091192838333</v>
       </c>
       <c r="H21" t="n">
-        <v>1.963189980858353</v>
+        <v>1.550755652563613</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2179013800367261</v>
+        <v>0.5010943955463584</v>
       </c>
       <c r="J21" t="n">
-        <v>1.127389846183834</v>
+        <v>0.05394307052744819</v>
       </c>
       <c r="K21" t="n">
-        <v>0.672645635455259</v>
+        <v>0.2775187262890411</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9805724851236052</v>
+        <v>0.9539182309885613</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5953727477017305</v>
+        <v>0.4465524821158576</v>
       </c>
       <c r="N21" t="n">
-        <v>1.025963392726584</v>
+        <v>1.014605907799675</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6207189981628848</v>
+        <v>0.465563145770602</v>
       </c>
       <c r="P21" t="n">
-        <v>148.0742704114371</v>
+        <v>149.2247933777602</v>
       </c>
       <c r="Q21" t="n">
-        <v>237.0522056268157</v>
+        <v>238.2027285931389</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9464218748365851</v>
+        <v>0.9700401228320975</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7061264385225465</v>
+        <v>0.7676664196244162</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9723643663922206</v>
+        <v>0.9483153112981809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4534699088704096</v>
+        <v>0.6300796930705819</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9123817195603671</v>
+        <v>0.9449557850773063</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3582771696723372</v>
+        <v>0.2003418365743138</v>
       </c>
       <c r="H22" t="n">
-        <v>1.965133858763058</v>
+        <v>1.553615721769298</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2164271485858076</v>
+        <v>0.4903058084861956</v>
       </c>
       <c r="J22" t="n">
-        <v>1.135029925104068</v>
+        <v>0.05651078483430404</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6757285499841746</v>
+        <v>0.2734082978121208</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9907982013716634</v>
+        <v>0.9656112434542499</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5985625862617352</v>
+        <v>0.4475956172420746</v>
       </c>
       <c r="N22" t="n">
-        <v>1.026242347018815</v>
+        <v>1.014674225551626</v>
       </c>
       <c r="O22" t="n">
-        <v>0.624044634754265</v>
+        <v>0.4666506893187295</v>
       </c>
       <c r="P22" t="n">
-        <v>148.0528967503419</v>
+        <v>149.2154603771067</v>
       </c>
       <c r="Q22" t="n">
-        <v>237.0308319657206</v>
+        <v>238.1933955924854</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9458355731343343</v>
+        <v>0.9698885407622542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7058216907839827</v>
+        <v>0.7672239936990315</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9725389175532871</v>
+        <v>0.9494423663355741</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4496763743915364</v>
+        <v>0.6124748826415971</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9119595702950326</v>
+        <v>0.945761330274605</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3621977718549597</v>
+        <v>0.2013554665733276</v>
       </c>
       <c r="H23" t="n">
-        <v>1.967171708294069</v>
+        <v>1.55657422596953</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2150601594800701</v>
+        <v>0.4796140224815313</v>
       </c>
       <c r="J23" t="n">
-        <v>1.142908311354559</v>
+        <v>0.05920017937568262</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6789842439958589</v>
+        <v>0.2694071009286069</v>
       </c>
       <c r="L23" t="n">
-        <v>1.001105043353214</v>
+        <v>0.9773693763035314</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6018286897905082</v>
+        <v>0.4487264941735974</v>
       </c>
       <c r="N23" t="n">
-        <v>1.02652951519951</v>
+        <v>1.014748469830733</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6274497830720241</v>
+        <v>0.4678297100224652</v>
       </c>
       <c r="P23" t="n">
-        <v>148.0311297704996</v>
+        <v>149.2053668848928</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.0090649858783</v>
+        <v>238.1833021002715</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9452322333302449</v>
+        <v>0.9697244806638496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7055026949574621</v>
+        <v>0.766766471180812</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9726993030243339</v>
+        <v>0.9505581570870912</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4457695363298572</v>
+        <v>0.59406047252813</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9115149790138015</v>
+        <v>0.9465436699068793</v>
       </c>
       <c r="G24" t="n">
-        <v>0.36623230790303</v>
+        <v>0.2024525372067853</v>
       </c>
       <c r="H24" t="n">
-        <v>1.969304834854853</v>
+        <v>1.559633681155561</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2138041083011505</v>
+        <v>0.4690290949088758</v>
       </c>
       <c r="J24" t="n">
-        <v>1.151022005704629</v>
+        <v>0.06201325221402055</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6824130150273663</v>
+        <v>0.2655211676389503</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01149596004965</v>
+        <v>0.9891965763507276</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6051713045931953</v>
+        <v>0.4499472604725862</v>
       </c>
       <c r="N24" t="n">
-        <v>1.026825028572941</v>
+        <v>1.014828825797298</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6309346999070282</v>
+        <v>0.4691024468701365</v>
       </c>
       <c r="P24" t="n">
-        <v>148.0089748517689</v>
+        <v>149.1944996081436</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.9869100671475</v>
+        <v>238.1724348235223</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9446111898966312</v>
+        <v>0.9695475430156713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7051691227710128</v>
+        <v>0.7662934644056529</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9728448349774895</v>
+        <v>0.9516620450128996</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4417415364947915</v>
+        <v>0.5748150216695382</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9110465231287693</v>
+        <v>0.9473018615713317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3703852282032466</v>
+        <v>0.2036357200748772</v>
       </c>
       <c r="H25" t="n">
-        <v>1.971535433601597</v>
+        <v>1.562796679639046</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2126643817402687</v>
+        <v>0.4585570832641079</v>
       </c>
       <c r="J25" t="n">
-        <v>1.159387327990296</v>
+        <v>0.06495327878768081</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6860258343424226</v>
+        <v>0.2617551789208921</v>
       </c>
       <c r="L25" t="n">
-        <v>1.021968130152992</v>
+        <v>1.001091922657168</v>
       </c>
       <c r="M25" t="n">
-        <v>0.608592826283096</v>
+        <v>0.4512601467832908</v>
       </c>
       <c r="N25" t="n">
-        <v>1.027129213111854</v>
+        <v>1.014915489135181</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6345018828587942</v>
+        <v>0.4704712254691372</v>
       </c>
       <c r="P25" t="n">
-        <v>147.9864233153323</v>
+        <v>149.182845134566</v>
       </c>
       <c r="Q25" t="n">
-        <v>236.9643585307109</v>
+        <v>238.1607803499446</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9439722916962824</v>
+        <v>0.9693574035967156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.70482074118698</v>
+        <v>0.7658045419428555</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9729749583290396</v>
+        <v>0.9527533518819978</v>
       </c>
       <c r="E26" t="n">
-        <v>0.437594332384453</v>
+        <v>0.5547195713533812</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9105541777080816</v>
+        <v>0.9480349683625745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3746575434108345</v>
+        <v>0.2049071832449454</v>
       </c>
       <c r="H26" t="n">
-        <v>1.973865062858175</v>
+        <v>1.566066106399053</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2116453269090997</v>
+        <v>0.4482044215726211</v>
       </c>
       <c r="J26" t="n">
-        <v>1.168000212892973</v>
+        <v>0.06802315531971308</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6898228942201486</v>
+        <v>0.2581137884461671</v>
       </c>
       <c r="L26" t="n">
-        <v>1.032522752048536</v>
+        <v>1.013054394207889</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6120927571952102</v>
+        <v>0.4526667463432071</v>
       </c>
       <c r="N26" t="n">
-        <v>1.027442142842637</v>
+        <v>1.015008618646507</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6381508130756929</v>
+        <v>0.4719377068843816</v>
       </c>
       <c r="P26" t="n">
-        <v>147.9634857756401</v>
+        <v>149.1703963340628</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.9414209910187</v>
+        <v>238.1483315494414</v>
       </c>
     </row>
   </sheetData>
